--- a/Testcase/demo_api.xlsx
+++ b/Testcase/demo_api.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>id</t>
   </si>
@@ -57,7 +57,7 @@
     <t>msg</t>
   </si>
   <si>
-    <t>d_1</t>
+    <t>DL_1</t>
   </si>
   <si>
     <t>post</t>
@@ -78,7 +78,7 @@
     <t>广东赢时科技有限公司</t>
   </si>
   <si>
-    <t>d_2</t>
+    <t>总览_G1</t>
   </si>
   <si>
     <t>get</t>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>操作成功</t>
+  </si>
+  <si>
+    <t>总览_G2</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3</t>
+  </si>
+  <si>
+    <t>总览_G3</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week</t>
   </si>
 </sst>
 </file>
@@ -101,9 +113,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -123,6 +135,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -130,9 +180,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,45 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,53 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,43 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,139 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,26 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,15 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +528,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,6 +551,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,137 +591,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -728,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,16 +1094,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="37.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.125" style="2" customWidth="1"/>
@@ -1102,7 +1117,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1126,7 +1141,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1143,19 +1158,19 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1166,16 +1181,53 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1183,6 +1235,8 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://api.chebaotec.com/washingmanage/n/login" tooltip="http://api.chebaotec.com/washingmanage/n/login"/>
     <hyperlink ref="C3" r:id="rId2" display="http://api.chebaotec.com/washingmanage/n/business/device/month?pageIndex=1&amp;pageSize=3" tooltip="http://api.chebaotec.com/washingmanage/n/business/device/month?pageIndex=1&amp;pageSize=3"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3" tooltip="http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Testcase/demo_api.xlsx
+++ b/Testcase/demo_api.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week</t>
+  </si>
+  <si>
+    <t>总览_G4</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/index/count</t>
+  </si>
+  <si>
+    <t>总览_G5</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/amount/month?pageIndex=1&amp;pageSize=3</t>
   </si>
 </sst>
 </file>
@@ -113,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +162,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -175,27 +210,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,36 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +247,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -280,6 +292,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,6 +340,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,42 +442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,48 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,17 +486,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,30 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +559,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,13 +1106,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="37.375" style="3" customWidth="1"/>
@@ -1231,12 +1243,51 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" ht="27" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://api.chebaotec.com/washingmanage/n/login" tooltip="http://api.chebaotec.com/washingmanage/n/login"/>
     <hyperlink ref="C3" r:id="rId2" display="http://api.chebaotec.com/washingmanage/n/business/device/month?pageIndex=1&amp;pageSize=3" tooltip="http://api.chebaotec.com/washingmanage/n/business/device/month?pageIndex=1&amp;pageSize=3"/>
     <hyperlink ref="C4" r:id="rId3" display="http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3" tooltip="http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3"/>
     <hyperlink ref="C5" r:id="rId4" display="http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://api.chebaotec.com/washingmanage/n/business/index/count"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://api.chebaotec.com/washingmanage/n/business/amount/month?pageIndex=1&amp;pageSize=3"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
